--- a/men_table.xlsx
+++ b/men_table.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,10 +473,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Mae</t>
+          <t>Mae old от pc</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mae pc от old </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Тип данных</t>
         </is>
@@ -509,7 +514,10 @@
       <c r="H2" t="n">
         <v>21.46177033492823</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>21.46177033492823</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -542,7 +550,10 @@
       <c r="H3" t="n">
         <v>29.69377990430622</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>29.69377990430622</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -575,7 +586,10 @@
       <c r="H4" t="n">
         <v>26.48086124401914</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>26.48086124401914</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -608,7 +622,10 @@
       <c r="H5" t="n">
         <v>34.21382775119618</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>34.21382775119618</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -641,7 +658,10 @@
       <c r="H6" t="n">
         <v>280.0122966507177</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>280.0122966507177</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -674,7 +694,10 @@
       <c r="H7" t="n">
         <v>623.3397129186603</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>623.3397129186603</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -707,7 +730,10 @@
       <c r="H8" t="n">
         <v>709.8851674641148</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>709.8851674641148</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -740,7 +766,10 @@
       <c r="H9" t="n">
         <v>33.79722488038277</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>33.79722488038277</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -773,7 +802,10 @@
       <c r="H10" t="n">
         <v>2766.684210526316</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>2766.684210526316</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -806,7 +838,10 @@
       <c r="H11" t="n">
         <v>251.7607655502392</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>251.7607655502392</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -839,7 +874,10 @@
       <c r="H12" t="n">
         <v>1853.382775119617</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>1853.382775119617</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -872,7 +910,10 @@
       <c r="H13" t="n">
         <v>835.0526315789474</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="n">
+        <v>835.0526315789474</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -905,7 +946,10 @@
       <c r="H14" t="n">
         <v>1251.684210526316</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>1251.684210526316</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -938,7 +982,10 @@
       <c r="H15" t="n">
         <v>473.3827751196172</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="n">
+        <v>473.3827751196172</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -971,7 +1018,10 @@
       <c r="H16" t="n">
         <v>1606.937799043062</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="n">
+        <v>1606.937799043062</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1004,7 +1054,10 @@
       <c r="H17" t="n">
         <v>2359.354066985646</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="n">
+        <v>2359.354066985646</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1037,7 +1090,10 @@
       <c r="H18" t="n">
         <v>33.27942583732057</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="n">
+        <v>33.27942583732057</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1070,7 +1126,10 @@
       <c r="H19" t="n">
         <v>31.92822966507177</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="n">
+        <v>31.92822966507177</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -1103,7 +1162,10 @@
       <c r="H20" t="n">
         <v>33.40321004784689</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>33.40321004784689</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1136,7 +1198,10 @@
       <c r="H21" t="n">
         <v>33.71564593301435</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" t="n">
+        <v>33.71564593301435</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1169,7 +1234,10 @@
       <c r="H22" t="n">
         <v>24.50334928229665</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" t="n">
+        <v>24.50334928229665</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1202,7 +1270,10 @@
       <c r="H23" t="n">
         <v>31.38277511961723</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" t="n">
+        <v>31.38277511961723</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1219,7 +1290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,10 +1336,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Mae</t>
+          <t>Mae old от pc</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mae pc от old </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Тип данных</t>
         </is>
@@ -1277,64 +1353,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mono_err</t>
+          <t>MxDMn</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01068700408540564</v>
+        <v>-0.6083538838593684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8779424738844125</v>
+        <v>1.51639923684318e-22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0604804520357406</v>
+        <v>-0.6391775894167664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3843503709698886</v>
+        <v>2.130688088652541e-25</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05043588456523484</v>
+        <v>-0.4446784861249556</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3693684646876118</v>
+        <v>4.828500491287765e-20</v>
       </c>
       <c r="H2" t="n">
-        <v>34.08612440191388</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>discret</t>
+        <v>34.34794258373206</v>
+      </c>
+      <c r="I2" t="n">
+        <v>34.34794258373206</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>continious</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>RR_dev</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.04071827424505156</v>
+        <v>-0.6009999590887751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5582991589417133</v>
+        <v>6.548711793543452e-22</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03718934235459632</v>
+        <v>-0.6216643726715374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5929260423771925</v>
+        <v>9.725022841776629e-24</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03080045127272784</v>
+        <v>-0.4313730478979804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5403392252767422</v>
+        <v>2.992701819932858e-19</v>
       </c>
       <c r="H3" t="n">
-        <v>37.73636363636364</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>30.00478468899522</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30.00478468899522</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1343,97 +1425,106 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>color_err</t>
+          <t>SDNN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04894347439662449</v>
+        <v>-0.5848969729118509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4815909981060682</v>
+        <v>1.418028298616909e-20</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04057226982337153</v>
+        <v>-0.6104953110012229</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5597122335297946</v>
+        <v>9.832992911125812e-23</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03176515655604036</v>
+        <v>-0.4175576436048763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5776757075589067</v>
+        <v>1.983258492966723e-18</v>
       </c>
       <c r="H4" t="n">
-        <v>34.21531100478469</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>discret</t>
+        <v>32.43499043062201</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.43499043062201</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>continious</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>true_text_err</t>
+          <t>LF_avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1706661640502122</v>
+        <v>-0.5708260729833838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01348685115983713</v>
+        <v>1.817757501447436e-19</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1324304643067784</v>
+        <v>-0.6880981143643232</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05594417275081117</v>
+        <v>1.174957896034124e-30</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09840554459124704</v>
+        <v>-0.4770395989601814</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05922608182372179</v>
+        <v>1.43627479044897e-23</v>
       </c>
       <c r="H5" t="n">
-        <v>32.88038277511961</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>discret</t>
+        <v>538.2557416267944</v>
+      </c>
+      <c r="I5" t="n">
+        <v>538.2557416267944</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>continious</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VLF_dev</t>
+          <t>TP_avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2768431663103712</v>
+        <v>-0.5700660901923593</v>
       </c>
       <c r="C6" t="n">
-        <v>4.952271930477782e-05</v>
+        <v>2.079085289712518e-19</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4090495859376966</v>
+        <v>-0.6816186787744011</v>
       </c>
       <c r="E6" t="n">
-        <v>7.785096278647364e-10</v>
+        <v>6.689586957237131e-30</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2695157706425486</v>
+        <v>-0.4732509393834103</v>
       </c>
       <c r="G6" t="n">
-        <v>1.576055218060055e-08</v>
+        <v>3.195842008619346e-23</v>
       </c>
       <c r="H6" t="n">
-        <v>177.3089473684211</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>1237.253444976077</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1237.253444976077</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1442,31 +1533,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HR_avg</t>
+          <t>HF_avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2842642032916544</v>
+        <v>-0.5011565741356335</v>
       </c>
       <c r="C7" t="n">
-        <v>3.028783763383545e-05</v>
+        <v>1.088570406834423e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3260765800065846</v>
+        <v>-0.6542112138241365</v>
       </c>
       <c r="E7" t="n">
-        <v>1.449295252692275e-06</v>
+        <v>6.547430697703425e-27</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2367258509446054</v>
+        <v>-0.4607483627800659</v>
       </c>
       <c r="G7" t="n">
-        <v>9.200657774145725e-07</v>
+        <v>4.281175620863152e-22</v>
       </c>
       <c r="H7" t="n">
-        <v>48.38755980861244</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>313.6591387559809</v>
+      </c>
+      <c r="I7" t="n">
+        <v>313.6591387559809</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1475,31 +1569,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HF_dev</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3264803740685059</v>
+        <v>-0.4986970962110164</v>
       </c>
       <c r="C8" t="n">
-        <v>1.404122290512433e-06</v>
+        <v>1.535621082932681e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5348322035056415</v>
+        <v>-0.4987325303619556</v>
       </c>
       <c r="E8" t="n">
-        <v>7.329469571324534e-17</v>
+        <v>1.528057632806956e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3720161277943975</v>
+        <v>-0.3822419168497105</v>
       </c>
       <c r="G8" t="n">
-        <v>6.061726449224172e-15</v>
+        <v>6.041149133495885e-13</v>
       </c>
       <c r="H8" t="n">
-        <v>81.81411483253589</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>48.62248803827752</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48.62248803827752</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1508,31 +1605,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>LF_dev</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3577896202158115</v>
+        <v>-0.4627027144203189</v>
       </c>
       <c r="C9" t="n">
-        <v>1.045696107475362e-07</v>
+        <v>1.744517498682105e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5309831362771341</v>
+        <v>-0.5989318177129054</v>
       </c>
       <c r="E9" t="n">
-        <v>1.335521052755097e-16</v>
+        <v>9.815166853040947e-22</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3484986276814762</v>
+        <v>-0.4062863813639825</v>
       </c>
       <c r="G9" t="n">
-        <v>2.810980955764179e-13</v>
+        <v>1.570595236404218e-17</v>
       </c>
       <c r="H9" t="n">
-        <v>34.56464114832536</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>199.7712440191388</v>
+      </c>
+      <c r="I9" t="n">
+        <v>199.7712440191388</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1541,31 +1641,34 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VLF_avg</t>
+          <t>pNN50</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3778290483203747</v>
+        <v>-0.4615237498993092</v>
       </c>
       <c r="C10" t="n">
-        <v>1.701430078823245e-08</v>
+        <v>2.018436850313503e-12</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5388903234356975</v>
+        <v>-0.5163766524281101</v>
       </c>
       <c r="E10" t="n">
-        <v>3.86121255864479e-17</v>
+        <v>1.216070560719591e-15</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3566549409082821</v>
+        <v>-0.3657498030110488</v>
       </c>
       <c r="G10" t="n">
-        <v>7.386657239408351e-14</v>
+        <v>2.606254253866013e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>345.6813397129187</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>31.08612440191387</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31.08612440191387</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1598,7 +1701,10 @@
       <c r="H11" t="n">
         <v>367.3872727272727</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>367.3872727272727</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1607,31 +1713,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pNN50</t>
+          <t>VLF_avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.4615237498993092</v>
+        <v>-0.3778290483203747</v>
       </c>
       <c r="C12" t="n">
-        <v>2.018436850313503e-12</v>
+        <v>1.701430078823245e-08</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5163766524281101</v>
+        <v>-0.5388903234356975</v>
       </c>
       <c r="E12" t="n">
-        <v>1.216070560719591e-15</v>
+        <v>3.86121255864479e-17</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3657498030110488</v>
+        <v>-0.3566549409082821</v>
       </c>
       <c r="G12" t="n">
-        <v>2.606254253866013e-14</v>
+        <v>7.386657239408351e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>31.08612440191387</v>
-      </c>
-      <c r="I12" t="inlineStr">
+        <v>345.6813397129187</v>
+      </c>
+      <c r="I12" t="n">
+        <v>345.6813397129187</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1640,31 +1749,34 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LF_dev</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.4627027144203189</v>
+        <v>-0.3577896202158115</v>
       </c>
       <c r="C13" t="n">
-        <v>1.744517498682105e-12</v>
+        <v>1.045696107475362e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5989318177129054</v>
+        <v>-0.5309831362771341</v>
       </c>
       <c r="E13" t="n">
-        <v>9.815166853040947e-22</v>
+        <v>1.335521052755097e-16</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4062863813639825</v>
+        <v>-0.3484986276814762</v>
       </c>
       <c r="G13" t="n">
-        <v>1.570595236404218e-17</v>
+        <v>2.810980955764179e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7712440191388</v>
-      </c>
-      <c r="I13" t="inlineStr">
+        <v>34.56464114832536</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34.56464114832536</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1673,31 +1785,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>HF_dev</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.4986970962110164</v>
+        <v>-0.3264803740685059</v>
       </c>
       <c r="C14" t="n">
-        <v>1.535621082932681e-14</v>
+        <v>1.404122290512433e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4987325303619556</v>
+        <v>-0.5348322035056415</v>
       </c>
       <c r="E14" t="n">
-        <v>1.528057632806956e-14</v>
+        <v>7.329469571324534e-17</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3822419168497105</v>
+        <v>-0.3720161277943975</v>
       </c>
       <c r="G14" t="n">
-        <v>6.041149133495885e-13</v>
+        <v>6.061726449224172e-15</v>
       </c>
       <c r="H14" t="n">
-        <v>48.62248803827752</v>
-      </c>
-      <c r="I14" t="inlineStr">
+        <v>81.81411483253589</v>
+      </c>
+      <c r="I14" t="n">
+        <v>81.81411483253589</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1706,31 +1821,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HF_avg</t>
+          <t>HR_avg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.5011565741356335</v>
+        <v>-0.2842642032916544</v>
       </c>
       <c r="C15" t="n">
-        <v>1.088570406834423e-14</v>
+        <v>3.028783763383545e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6542112138241365</v>
+        <v>-0.3260765800065846</v>
       </c>
       <c r="E15" t="n">
-        <v>6.547430697703425e-27</v>
+        <v>1.449295252692275e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4607483627800659</v>
+        <v>-0.2367258509446054</v>
       </c>
       <c r="G15" t="n">
-        <v>4.281175620863152e-22</v>
+        <v>9.200657774145725e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>313.6591387559809</v>
-      </c>
-      <c r="I15" t="inlineStr">
+        <v>48.38755980861244</v>
+      </c>
+      <c r="I15" t="n">
+        <v>48.38755980861244</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1739,31 +1857,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TP_avg</t>
+          <t>VLF_dev</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.5700660901923593</v>
+        <v>-0.2768431663103712</v>
       </c>
       <c r="C16" t="n">
-        <v>2.079085289712518e-19</v>
+        <v>4.952271930477782e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6816186787744011</v>
+        <v>-0.4090495859376966</v>
       </c>
       <c r="E16" t="n">
-        <v>6.689586957237131e-30</v>
+        <v>7.785096278647364e-10</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4732509393834103</v>
+        <v>-0.2695157706425486</v>
       </c>
       <c r="G16" t="n">
-        <v>3.195842008619346e-23</v>
+        <v>1.576055218060055e-08</v>
       </c>
       <c r="H16" t="n">
-        <v>1237.253444976077</v>
-      </c>
-      <c r="I16" t="inlineStr">
+        <v>177.3089473684211</v>
+      </c>
+      <c r="I16" t="n">
+        <v>177.3089473684211</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1772,97 +1893,106 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LF_avg</t>
+          <t>true_text_err</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5708260729833838</v>
+        <v>-0.1706661640502122</v>
       </c>
       <c r="C17" t="n">
-        <v>1.817757501447436e-19</v>
+        <v>0.01348685115983713</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6880981143643232</v>
+        <v>-0.1324304643067784</v>
       </c>
       <c r="E17" t="n">
-        <v>1.174957896034124e-30</v>
+        <v>0.05594417275081117</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4770395989601814</v>
+        <v>-0.09840554459124704</v>
       </c>
       <c r="G17" t="n">
-        <v>1.43627479044897e-23</v>
+        <v>0.05922608182372179</v>
       </c>
       <c r="H17" t="n">
-        <v>538.2557416267944</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>continious</t>
+        <v>32.88038277511961</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32.88038277511961</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>discret</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SDNN</t>
+          <t>color_err</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.5848969729118509</v>
+        <v>-0.04894347439662449</v>
       </c>
       <c r="C18" t="n">
-        <v>1.418028298616909e-20</v>
+        <v>0.4815909981060682</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6104953110012229</v>
+        <v>-0.04057226982337153</v>
       </c>
       <c r="E18" t="n">
-        <v>9.832992911125812e-23</v>
+        <v>0.5597122335297946</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4175576436048763</v>
+        <v>-0.03176515655604036</v>
       </c>
       <c r="G18" t="n">
-        <v>1.983258492966723e-18</v>
+        <v>0.5776757075589067</v>
       </c>
       <c r="H18" t="n">
-        <v>32.43499043062201</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>continious</t>
+        <v>34.21531100478469</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34.21531100478469</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>discret</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RR_dev</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.6009999590887751</v>
+        <v>-0.04071827424505156</v>
       </c>
       <c r="C19" t="n">
-        <v>6.548711793543452e-22</v>
+        <v>0.5582991589417133</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6216643726715374</v>
+        <v>-0.03718934235459632</v>
       </c>
       <c r="E19" t="n">
-        <v>9.725022841776629e-24</v>
+        <v>0.5929260423771925</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4313730478979804</v>
+        <v>-0.03080045127272784</v>
       </c>
       <c r="G19" t="n">
-        <v>2.992701819932858e-19</v>
+        <v>0.5403392252767422</v>
       </c>
       <c r="H19" t="n">
-        <v>30.00478468899522</v>
-      </c>
-      <c r="I19" t="inlineStr">
+        <v>37.73636363636364</v>
+      </c>
+      <c r="I19" t="n">
+        <v>37.73636363636364</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -1871,33 +2001,36 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MxDMn</t>
+          <t>mono_err</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.6083538838593684</v>
+        <v>-0.01068700408540564</v>
       </c>
       <c r="C20" t="n">
-        <v>1.51639923684318e-22</v>
+        <v>0.8779424738844125</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6391775894167664</v>
+        <v>0.0604804520357406</v>
       </c>
       <c r="E20" t="n">
-        <v>2.130688088652541e-25</v>
+        <v>0.3843503709698886</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4446784861249556</v>
+        <v>0.05043588456523484</v>
       </c>
       <c r="G20" t="n">
-        <v>4.828500491287765e-20</v>
+        <v>0.3693684646876118</v>
       </c>
       <c r="H20" t="n">
-        <v>34.34794258373206</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>continious</t>
+        <v>34.08612440191388</v>
+      </c>
+      <c r="I20" t="n">
+        <v>34.08612440191388</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>discret</t>
         </is>
       </c>
     </row>
@@ -1912,7 +2045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,10 +2091,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Mae</t>
+          <t>Mae old от pc</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mae pc от old </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Тип данных</t>
         </is>
@@ -1994,7 +2132,10 @@
       <c r="H2" t="n">
         <v>21.46177033492823</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>21.46177033492823</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2027,7 +2168,10 @@
       <c r="H3" t="n">
         <v>29.69377990430622</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>29.69377990430622</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2060,7 +2204,10 @@
       <c r="H4" t="n">
         <v>26.48086124401914</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>26.48086124401914</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2093,7 +2240,10 @@
       <c r="H5" t="n">
         <v>34.21382775119618</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>34.21382775119618</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2126,7 +2276,10 @@
       <c r="H6" t="n">
         <v>280.0122966507177</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>280.0122966507177</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2159,7 +2312,10 @@
       <c r="H7" t="n">
         <v>623.3397129186603</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>623.3397129186603</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2192,7 +2348,10 @@
       <c r="H8" t="n">
         <v>709.8851674641148</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>709.8851674641148</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2225,7 +2384,10 @@
       <c r="H9" t="n">
         <v>33.79722488038277</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>33.79722488038277</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2258,7 +2420,10 @@
       <c r="H10" t="n">
         <v>2766.684210526316</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>2766.684210526316</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2291,7 +2456,10 @@
       <c r="H11" t="n">
         <v>251.7607655502392</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>251.7607655502392</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2324,7 +2492,10 @@
       <c r="H12" t="n">
         <v>1853.382775119617</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>1853.382775119617</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2357,7 +2528,10 @@
       <c r="H13" t="n">
         <v>835.0526315789474</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="n">
+        <v>835.0526315789474</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2390,7 +2564,10 @@
       <c r="H14" t="n">
         <v>1251.684210526316</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>1251.684210526316</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2423,7 +2600,10 @@
       <c r="H15" t="n">
         <v>473.3827751196172</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="n">
+        <v>473.3827751196172</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2456,7 +2636,10 @@
       <c r="H16" t="n">
         <v>1606.937799043062</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="n">
+        <v>1606.937799043062</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2489,7 +2672,10 @@
       <c r="H17" t="n">
         <v>2359.354066985646</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="n">
+        <v>2359.354066985646</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2522,7 +2708,10 @@
       <c r="H18" t="n">
         <v>33.27942583732057</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="n">
+        <v>33.27942583732057</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2555,7 +2744,10 @@
       <c r="H19" t="n">
         <v>31.92822966507177</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="n">
+        <v>31.92822966507177</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2588,7 +2780,10 @@
       <c r="H20" t="n">
         <v>33.40321004784689</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>33.40321004784689</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2621,7 +2816,10 @@
       <c r="H21" t="n">
         <v>33.71564593301435</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" t="n">
+        <v>33.71564593301435</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2654,7 +2852,10 @@
       <c r="H22" t="n">
         <v>24.50334928229665</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" t="n">
+        <v>24.50334928229665</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2687,7 +2888,10 @@
       <c r="H23" t="n">
         <v>31.38277511961723</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" t="n">
+        <v>31.38277511961723</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2720,7 +2924,10 @@
       <c r="H24" t="n">
         <v>34.08612440191388</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" t="n">
+        <v>34.08612440191388</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2753,7 +2960,10 @@
       <c r="H25" t="n">
         <v>37.73636363636364</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I25" t="n">
+        <v>37.73636363636364</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2786,7 +2996,10 @@
       <c r="H26" t="n">
         <v>34.21531100478469</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I26" t="n">
+        <v>34.21531100478469</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2819,7 +3032,10 @@
       <c r="H27" t="n">
         <v>32.88038277511961</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I27" t="n">
+        <v>32.88038277511961</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>discret</t>
         </is>
@@ -2852,7 +3068,10 @@
       <c r="H28" t="n">
         <v>177.3089473684211</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I28" t="n">
+        <v>177.3089473684211</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2885,7 +3104,10 @@
       <c r="H29" t="n">
         <v>48.38755980861244</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I29" t="n">
+        <v>48.38755980861244</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2918,7 +3140,10 @@
       <c r="H30" t="n">
         <v>81.81411483253589</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I30" t="n">
+        <v>81.81411483253589</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2951,7 +3176,10 @@
       <c r="H31" t="n">
         <v>34.56464114832536</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I31" t="n">
+        <v>34.56464114832536</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -2984,7 +3212,10 @@
       <c r="H32" t="n">
         <v>345.6813397129187</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32" t="n">
+        <v>345.6813397129187</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3017,7 +3248,10 @@
       <c r="H33" t="n">
         <v>367.3872727272727</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33" t="n">
+        <v>367.3872727272727</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3050,7 +3284,10 @@
       <c r="H34" t="n">
         <v>31.08612440191387</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I34" t="n">
+        <v>31.08612440191387</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3083,7 +3320,10 @@
       <c r="H35" t="n">
         <v>199.7712440191388</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I35" t="n">
+        <v>199.7712440191388</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3116,7 +3356,10 @@
       <c r="H36" t="n">
         <v>48.62248803827752</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I36" t="n">
+        <v>48.62248803827752</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3149,7 +3392,10 @@
       <c r="H37" t="n">
         <v>313.6591387559809</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I37" t="n">
+        <v>313.6591387559809</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3182,7 +3428,10 @@
       <c r="H38" t="n">
         <v>1237.253444976077</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I38" t="n">
+        <v>1237.253444976077</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3215,7 +3464,10 @@
       <c r="H39" t="n">
         <v>538.2557416267944</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I39" t="n">
+        <v>538.2557416267944</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3248,7 +3500,10 @@
       <c r="H40" t="n">
         <v>32.43499043062201</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I40" t="n">
+        <v>32.43499043062201</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3281,7 +3536,10 @@
       <c r="H41" t="n">
         <v>30.00478468899522</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I41" t="n">
+        <v>30.00478468899522</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
@@ -3314,7 +3572,10 @@
       <c r="H42" t="n">
         <v>34.34794258373206</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I42" t="n">
+        <v>34.34794258373206</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>continious</t>
         </is>
